--- a/clients/pitizzle/tmp/indexes.xlsx
+++ b/clients/pitizzle/tmp/indexes.xlsx
@@ -4,22 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="12855"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="25440" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="usprünglich" sheetId="4" r:id="rId1"/>
+    <sheet name="übereinander" sheetId="2" r:id="rId2"/>
+    <sheet name="nebeneinander" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Nr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -66,9 +63,6 @@
     <t>FLOOR_1</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>FLOOR_2</t>
   </si>
   <si>
@@ -81,29 +75,94 @@
     <t>FLOOR_5</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>url</t>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>FLOOR_0</t>
+  </si>
+  <si>
+    <t>FLOOR_6</t>
+  </si>
+  <si>
+    <t>FLOOR_7</t>
+  </si>
+  <si>
+    <t>FLOOR_8</t>
+  </si>
+  <si>
+    <t>FLOOR_9</t>
+  </si>
+  <si>
+    <t>FLOOR_10</t>
+  </si>
+  <si>
+    <t>FLOOR_11</t>
+  </si>
+  <si>
+    <t>FLOOR_12</t>
+  </si>
+  <si>
+    <t>FLOOR_13</t>
+  </si>
+  <si>
+    <t>FLOOR_14</t>
+  </si>
+  <si>
+    <t>FLOOR_15</t>
+  </si>
+  <si>
+    <t>FLOOR_16</t>
+  </si>
+  <si>
+    <t>FLOOR_17</t>
+  </si>
+  <si>
+    <t>FLOOR_18</t>
+  </si>
+  <si>
+    <t>FLOOR_19</t>
+  </si>
+  <si>
+    <t>WALL_SPECIAL_3</t>
+  </si>
+  <si>
+    <t>WALL_SPECIAL_9</t>
+  </si>
+  <si>
+    <t>WALL_SPECIAL_4</t>
+  </si>
+  <si>
+    <t>WALL_SPECIAL_5</t>
+  </si>
+  <si>
+    <t>WALL_SPECIAL_6</t>
+  </si>
+  <si>
+    <t>WALL_SPECIAL_7</t>
+  </si>
+  <si>
+    <t>WALL_SPECIAL_8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -132,17 +191,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -157,9 +213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -197,7 +253,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -267,7 +323,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -441,285 +497,1265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D22"/>
+  <dimension ref="B2:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="113" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/",D3,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/FLOOR_1.png)</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/",D4,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/FLOOR_2.png)</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/",D5,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/FLOOR_3.png)</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/",D6,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/FLOOR_4.png)</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/",D7,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/FLOOR_5.png)</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2">
+        <v>512</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" ref="C9:C21" si="0">CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/",D9,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL.png)</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2">
+        <v>516</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_LEFT_RIGHT.png)</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2">
+        <v>520</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_TOP_BOTTOM.png)</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2">
+        <v>524</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_TOP_LEFT.png)</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2">
+        <v>528</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_BOTTOM_RIGHT.png)</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2">
+        <v>532</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_TOP_RIGHT.png)</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2">
+        <v>536</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_BOTTOM_LEFT.png)</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="2">
+        <v>540</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_TOP.png)</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2">
+        <v>544</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_BOTTOM.png)</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2">
+        <v>548</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_RIGHT.png)</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2">
+        <v>552</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_LEFT.png)</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2">
+        <v>556</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_SPECIAL_1.png)</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2">
+        <v>560</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_SPECIAL_2.png)</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="11.42578125" style="3"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="84.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="104.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="2" customWidth="1"/>
+    <col min="5" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="3" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/",D3,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_0.png)</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" ref="C4:C43" si="0">CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/",D4,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_1.png)</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_2.png)</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_3.png)</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_4.png)</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_5.png)</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_6.png)</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_7.png)</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_8.png)</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_9.png)</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_10.png)</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_11.png)</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_12.png)</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_13.png)</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_14.png)</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_15.png)</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_16.png)</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_17.png)</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_18.png)</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_19.png)</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>512</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL.png)</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="3">
-        <v>512</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>516</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_LEFT_RIGHT.png)</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <f>CONCATENATE("https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/",C4,".png")</f>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL.png</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="3">
-        <v>516</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>520</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_TOP_BOTTOM.png)</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D22" si="0">CONCATENATE("https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/",C5,".png")</f>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_LEFT_RIGHT.png</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="3">
-        <v>520</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>524</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_TOP_LEFT.png)</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_TOP_BOTTOM.png</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="3">
-        <v>524</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>528</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_BOTTOM_RIGHT.png)</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_TOP_LEFT.png</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="3">
-        <v>528</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>532</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_TOP_RIGHT.png)</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_BOTTOM_RIGHT.png</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="3">
-        <v>532</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>536</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_BOTTOM_LEFT.png)</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_TOP_RIGHT.png</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="3">
-        <v>536</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>540</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_TOP.png)</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_BOTTOM_LEFT.png</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="3">
-        <v>540</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
+        <v>544</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_BOTTOM.png)</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_TOP.png</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="3">
-        <v>544</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2">
+        <v>548</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_RIGHT.png)</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_BOTTOM.png</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="3">
-        <v>548</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2">
+        <v>552</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_LEFT.png)</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_RIGHT.png</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="3">
-        <v>552</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2">
+        <v>556</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_1.png)</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_LEFT.png</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="3">
-        <v>556</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2">
+        <v>560</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_2.png)</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_SPECIAL_1.png</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="3">
-        <v>560</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/WALL_SPECIAL_2.png</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/FLOOR_1.png</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/FLOOR_2.png</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="3">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/FLOOR_3.png</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/FLOOR_4.png</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kaboomen-soek.c9users.io/tools/docs/map_icons_66px/FLOOR_5.png</v>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2">
+        <v>564</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_3.png)</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2">
+        <v>568</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_4.png)</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2">
+        <v>572</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_5.png)</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2">
+        <v>576</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_6.png)</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2">
+        <v>580</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_7.png)</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2">
+        <v>584</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_8.png)</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2">
+        <v>588</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_9.png)</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="96.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="108" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/",D2,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_0.png)</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2">
+        <v>512</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2:I21" si="0">CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/",J2,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL.png)</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C21" si="1">CONCATENATE("![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/",D3,".png)")</f>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_1.png)</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2">
+        <v>516</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_LEFT_RIGHT.png)</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_2.png)</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>520</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_TOP_BOTTOM.png)</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_3.png)</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>524</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_TOP_LEFT.png)</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="2">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_4.png)</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2">
+        <v>528</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_BOTTOM_RIGHT.png)</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_5.png)</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2">
+        <v>532</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_TOP_RIGHT.png)</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="2">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_6.png)</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2">
+        <v>536</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_BOTTOM_LEFT.png)</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="2">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_7.png)</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2">
+        <v>540</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_TOP.png)</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_8.png)</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2">
+        <v>544</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_BOTTOM.png)</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_9.png)</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2">
+        <v>548</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_RIGHT.png)</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_10.png)</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2">
+        <v>552</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_LEFT.png)</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_11.png)</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2">
+        <v>556</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_1.png)</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_12.png)</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2">
+        <v>560</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_2.png)</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="2">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_13.png)</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2">
+        <v>564</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_3.png)</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_14.png)</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2">
+        <v>568</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_4.png)</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="2">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_15.png)</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2">
+        <v>572</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_5.png)</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="2">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_16.png)</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="2">
+        <v>576</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_6.png)</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_17.png)</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="2">
+        <v>580</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_7.png)</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_18.png)</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="2">
+        <v>584</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_8.png)</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/FLOOR_19.png)</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="2">
+        <v>588</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>![couldn't be loaded](https://kaboomen-soek.c9users.io/tools/docs/map_icons_32px/WALL_SPECIAL_9.png)</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>